--- a/src/test/ressources/Classeur1.xlsx
+++ b/src/test/ressources/Classeur1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FilmeOK\src\test\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB34F7C-0FD4-4331-9E6F-C0A5D5471EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649D05F8-FCAB-432A-BA2F-883AFE188C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7172E8C-60DF-4256-981B-F2B986E60F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,9 +91,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,9 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C69EEDD-A477-42D6-A548-33D23E53475F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -446,11 +445,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -466,4 +463,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8C533D-484D-4C33-A916-7CEC0AFAE1B8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485C7669-991C-4AF3-B179-493D80CC9AE5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>